--- a/Output_testing/R1_201907/Country/HKD/MN/FIJI_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/FIJI_201907_HKD_MN.xlsx
@@ -810,136 +810,453 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>80.60760000000001</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>46.66158948450207</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>59.304639</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>39.57710651624592</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>115.663366</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>58.49259196648111</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>29.813792</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>42.99492936352798</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-41.4808345353655</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0.1239807733939817</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>9.292945</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>6.201671240501353</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>5.259874</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>2.659992306268372</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>3.465354</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>4.997440461435403</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-3.995698116845658</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>6.474269</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>3.747781627169618</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>5.045263</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>3.366969507283814</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>5.165048</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.612037463541303</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2.945837</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.248236981443594</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>23.2413601812995</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.2345635236658408</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.08198894145981438</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.115387</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.5640669032208302</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.961515</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.828731040670727</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>372.4948210242328</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4.295994</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.486836333743766</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>3.83118</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.556748030165247</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>4.033314</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.039703652362113</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.786961</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.577004024525942</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-22.02720598662609</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3.704406</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.144381820770329</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>3.347795</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.234159781489531</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1.31069</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.6628343789039229</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.778478</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.564770559363549</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>477.7655772854265</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>5.682174</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.289258960290482</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>3.231535</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.156573365297389</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>4.160689</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.104118982465255</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.734497</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.501344880793801</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-30.4356353048284</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>7.019441</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>4.063367155859779</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>4.994414</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.333035293650971</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>5.758283</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.912044751892529</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1.731176</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.496555615462633</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-15.87379339032535</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>6.07354</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.515810298256029</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>4.209056</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.808924570721086</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>4.147434</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.09741574242194</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.646592</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.374575724233612</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-20.58918423871395</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.216003</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.753616684883228</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>58.272559</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>33.7324300223481</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>56.466134</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>37.68282275318487</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>51.126111</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>25.85519385244262</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>21.262372</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>30.66279466365953</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-28.57624465019836</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1288,539 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.216003</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>66.03934871025362</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>4.824721086452866</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>13.13347287120947</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>9.668610119944917</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>16.15994082541379</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>91.78112210370276</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>2.299919</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>24.00653292956402</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.836241842112229</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>8.926423331818125</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>9.706119888134657</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>2.560272089188872</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>12.5402250096409</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.559655149484074</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>2.616531194011289</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-75.4124797779014</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.6879040078036422</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.5837784166289532</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.9519575785125</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.668744</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>17.41833420525348</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>5.84232990498557</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.847250711577658</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.9001931863302405</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.348570776947048</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.621014990048168</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.4645927321052</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-54.81914590628089</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>STARCHES, INULIN AND WHEAT GLUTEN; ALBUMINOIDAL SUBSTANCES; GLUES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.7307214183653021</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.298902299155316</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.4728184300948757</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.093345797602393</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.2632334979425209</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-85.68982315254938</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>3.103579</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>32.39512846452565</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>1.712512</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>65.9746789993185</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>2.281397</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>73.64281605540747</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>1.685757</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>17.59591573952955</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>0.9945376287718025</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1852,439 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>80.60760000000001</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>49.4013022499902</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>59.304639</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>40.27476801765584</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>115.663366</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>59.42355872804897</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>29.813792</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>44.16776543650764</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-41.4808345353655</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0.1312602448242337</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>9.292945</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>6.310993716289795</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>5.259874</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>2.70232868323353</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>3.465354</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>5.133763012315358</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-3.995698116845658</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>6.474269</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>3.967830821370959</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>5.045263</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>3.426322128241305</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>5.165048</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.653610592321789</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>2.945837</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.364122404496059</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>23.2413601812995</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.2483358080480225</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.08343423478802633</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1.115387</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.5730445792058513</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.961515</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.905894507488054</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>372.4948210242328</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>3.704406</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.270288167153931</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>3.347795</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.273543339428609</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1.31069</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.6733840357824837</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.778478</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.634733586991861</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>477.7655772854265</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>4.209752</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.579995322395168</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>3.796175</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.57804566484967</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3.952117</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.030451514350886</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.759993</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.607348907307578</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-21.15030514057255</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>5.682174</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.48238621682119</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>3.231535</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.1945892372085</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>4.160689</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.137608092268795</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.734497</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.569577752683262</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-30.4356353048284</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>3.915862</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.399881428441625</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>3.281902</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.228794305731812</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>3.476886</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.786295406721358</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.731176</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.564657843501141</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-12.8057281467334</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>5.611313</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.43895823138636</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>3.868149</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.626924406920804</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>3.847908</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.976912785143478</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.349034</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.99853199746861</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-29.67759894409588</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>4.806029</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.945430595269157</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.821545</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.237041545918877</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>3.799654</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.952121664998632</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.201461</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.77990936641377</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-29.67476081911223</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>47.53819</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>29.13433091429916</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>54.137302</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>36.76554340296676</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>46.890655</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>24.09068391792422</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>19.760109</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>29.27369518482666</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-28.53600521366025</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2316,489 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>8.555094</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>11.59980439324442</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>9.949351999999999</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>15.97742549462065</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>13.46952</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>63.66126274983919</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>7.68086</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>69.32172228224518</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>2.593892286337418</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>55.756235</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>75.59956906420531</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>42.500679</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>68.25081997232465</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>3.573369</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>16.88888563297951</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>0.750127</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>6.77008766862223</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-74.56652592469779</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>0.652795</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.891641521553347</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>0.688115</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.9330113029801177</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.6850474268976745</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>0.52433</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.478151403882483</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.7660404733963</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-9.296855980245544</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1.0677</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.447688494207904</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.3765779196965331</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.653966568107871</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1.910788</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.590826826328118</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>3.214463</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>5.162028953012695</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.96608298189205</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.23941854251333</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>64.0689262996416</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.5572577002397791</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1.134945</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.822580925671564</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.379182734185615</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.492100329430843</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-23.72830529899704</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>0.620503</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.8413365680635823</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>0.694124</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.114677065805699</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.874789383361746</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.458372950443497</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-43.86323289803263</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.5253277420585466</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.685505101554875</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.9603787861959315</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.9949712180096443</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-17.66950703120916</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.2554952571219237</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0.755798</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.213717861623882</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>0.659097</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>3.115103381162117</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.993978439928668</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-80.36673434934602</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>4.166757</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>5.649682651550288</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>2.933987</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>4.711619278791779</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1.624131</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>7.676162946501365</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>4.417700005749087</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-60.80239918959283</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
